--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spn-Siglec1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Spn-Siglec1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>Edge total expression derived specificity</t>
+  </si>
+  <si>
+    <t>ECs</t>
   </si>
   <si>
     <t>MuSCs</t>
@@ -443,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T5"/>
+  <dimension ref="A1:T10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -516,10 +519,10 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
@@ -531,46 +534,46 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1019996666666667</v>
+        <v>0.01649366666666667</v>
       </c>
       <c r="H2">
-        <v>0.305999</v>
+        <v>0.049481</v>
       </c>
       <c r="I2">
-        <v>0.0407521920356106</v>
+        <v>0.005209935740510855</v>
       </c>
       <c r="J2">
-        <v>0.0407521920356106</v>
+        <v>0.005209935740510855</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>2.056941666666666</v>
+        <v>0.216469</v>
       </c>
       <c r="N2">
-        <v>6.170825</v>
+        <v>0.6494070000000001</v>
       </c>
       <c r="O2">
-        <v>0.03574317142126884</v>
+        <v>0.005147493274683087</v>
       </c>
       <c r="P2">
-        <v>0.03574317142126884</v>
+        <v>0.005147493274683087</v>
       </c>
       <c r="Q2">
-        <v>0.2098073643527777</v>
+        <v>0.003570367529666667</v>
       </c>
       <c r="R2">
-        <v>1.888266279175</v>
+        <v>0.032133307767</v>
       </c>
       <c r="S2">
-        <v>0.001456612585721297</v>
+        <v>2.681810918581067E-05</v>
       </c>
       <c r="T2">
-        <v>0.001456612585721297</v>
+        <v>2.681810918581067E-05</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -578,10 +581,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
@@ -593,108 +596,108 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1019996666666667</v>
+        <v>0.01649366666666667</v>
       </c>
       <c r="H3">
-        <v>0.305999</v>
+        <v>0.049481</v>
       </c>
       <c r="I3">
-        <v>0.0407521920356106</v>
+        <v>0.005209935740510855</v>
       </c>
       <c r="J3">
-        <v>0.0407521920356106</v>
+        <v>0.005209935740510855</v>
       </c>
       <c r="K3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M3">
-        <v>55.49088033333334</v>
+        <v>0.03281033333333333</v>
       </c>
       <c r="N3">
-        <v>166.472641</v>
+        <v>0.09843099999999999</v>
       </c>
       <c r="O3">
-        <v>0.9642568285787312</v>
+        <v>0.0007802085757011102</v>
       </c>
       <c r="P3">
-        <v>0.9642568285787311</v>
+        <v>0.0007802085757011101</v>
       </c>
       <c r="Q3">
-        <v>5.660051297039889</v>
+        <v>0.0005411627012222222</v>
       </c>
       <c r="R3">
-        <v>50.940461673359</v>
+        <v>0.004870464310999999</v>
       </c>
       <c r="S3">
-        <v>0.03929557944988931</v>
+        <v>4.064836543598283E-06</v>
       </c>
       <c r="T3">
-        <v>0.0392955794498893</v>
+        <v>4.064836543598282E-06</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>22</v>
       </c>
-      <c r="C4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D4" t="s">
-        <v>20</v>
-      </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.01649366666666667</v>
+      </c>
+      <c r="H4">
+        <v>0.049481</v>
+      </c>
+      <c r="I4">
+        <v>0.005209935740510855</v>
+      </c>
+      <c r="J4">
+        <v>0.005209935740510855</v>
+      </c>
+      <c r="K4">
         <v>3</v>
       </c>
-      <c r="F4">
+      <c r="L4">
         <v>1</v>
       </c>
-      <c r="G4">
-        <v>2.400925</v>
-      </c>
-      <c r="H4">
-        <v>7.202775</v>
-      </c>
-      <c r="I4">
-        <v>0.9592478079643895</v>
-      </c>
-      <c r="J4">
-        <v>0.9592478079643894</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
-      <c r="L4">
-        <v>0.3333333333333333</v>
-      </c>
       <c r="M4">
-        <v>2.056941666666666</v>
+        <v>41.80400533333333</v>
       </c>
       <c r="N4">
-        <v>6.170825</v>
+        <v>125.412016</v>
       </c>
       <c r="O4">
-        <v>0.03574317142126884</v>
+        <v>0.9940722981496158</v>
       </c>
       <c r="P4">
-        <v>0.03574317142126884</v>
+        <v>0.9940722981496158</v>
       </c>
       <c r="Q4">
-        <v>4.938562671041666</v>
+        <v>0.6895013292995555</v>
       </c>
       <c r="R4">
-        <v>44.447064039375</v>
+        <v>6.205511963695999</v>
       </c>
       <c r="S4">
-        <v>0.03428655883554755</v>
+        <v>0.005179052794781445</v>
       </c>
       <c r="T4">
-        <v>0.03428655883554754</v>
+        <v>0.005179052794781445</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -702,61 +705,371 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
+        <v>20</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G5">
+        <v>0.133398</v>
+      </c>
+      <c r="H5">
+        <v>0.400194</v>
+      </c>
+      <c r="I5">
+        <v>0.04213708340045676</v>
+      </c>
+      <c r="J5">
+        <v>0.04213708340045676</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M5">
+        <v>0.216469</v>
+      </c>
+      <c r="N5">
+        <v>0.6494070000000001</v>
+      </c>
+      <c r="O5">
+        <v>0.005147493274683087</v>
+      </c>
+      <c r="P5">
+        <v>0.005147493274683087</v>
+      </c>
+      <c r="Q5">
+        <v>0.028876531662</v>
+      </c>
+      <c r="R5">
+        <v>0.259888784958</v>
+      </c>
+      <c r="S5">
+        <v>0.0002169003534186115</v>
+      </c>
+      <c r="T5">
+        <v>0.0002169003534186115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
+      <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G6">
+        <v>0.133398</v>
+      </c>
+      <c r="H6">
+        <v>0.400194</v>
+      </c>
+      <c r="I6">
+        <v>0.04213708340045676</v>
+      </c>
+      <c r="J6">
+        <v>0.04213708340045676</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.03281033333333333</v>
+      </c>
+      <c r="N6">
+        <v>0.09843099999999999</v>
+      </c>
+      <c r="O6">
+        <v>0.0007802085757011102</v>
+      </c>
+      <c r="P6">
+        <v>0.0007802085757011101</v>
+      </c>
+      <c r="Q6">
+        <v>0.004376832845999999</v>
+      </c>
+      <c r="R6">
+        <v>0.039391495614</v>
+      </c>
+      <c r="S6">
+        <v>3.287571382406926E-05</v>
+      </c>
+      <c r="T6">
+        <v>3.287571382406926E-05</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
         <v>22</v>
       </c>
-      <c r="C5" t="s">
+      <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G7">
+        <v>0.133398</v>
+      </c>
+      <c r="H7">
+        <v>0.400194</v>
+      </c>
+      <c r="I7">
+        <v>0.04213708340045676</v>
+      </c>
+      <c r="J7">
+        <v>0.04213708340045676</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>41.80400533333333</v>
+      </c>
+      <c r="N7">
+        <v>125.412016</v>
+      </c>
+      <c r="O7">
+        <v>0.9940722981496158</v>
+      </c>
+      <c r="P7">
+        <v>0.9940722981496158</v>
+      </c>
+      <c r="Q7">
+        <v>5.576570703455999</v>
+      </c>
+      <c r="R7">
+        <v>50.189136331104</v>
+      </c>
+      <c r="S7">
+        <v>0.04188730733321408</v>
+      </c>
+      <c r="T7">
+        <v>0.04188730733321409</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8" t="s">
         <v>23</v>
       </c>
-      <c r="D5" t="s">
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>3</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
+        <v>3.015918333333333</v>
+      </c>
+      <c r="H8">
+        <v>9.047754999999999</v>
+      </c>
+      <c r="I8">
+        <v>0.9526529808590324</v>
+      </c>
+      <c r="J8">
+        <v>0.9526529808590325</v>
+      </c>
+      <c r="K8">
+        <v>2</v>
+      </c>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.216469</v>
+      </c>
+      <c r="N8">
+        <v>0.6494070000000001</v>
+      </c>
+      <c r="O8">
+        <v>0.005147493274683087</v>
+      </c>
+      <c r="P8">
+        <v>0.005147493274683087</v>
+      </c>
+      <c r="Q8">
+        <v>0.6528528256983334</v>
+      </c>
+      <c r="R8">
+        <v>5.875675431285</v>
+      </c>
+      <c r="S8">
+        <v>0.004903774812078664</v>
+      </c>
+      <c r="T8">
+        <v>0.004903774812078665</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
         <v>21</v>
       </c>
-      <c r="E5">
+      <c r="E9">
         <v>3</v>
       </c>
-      <c r="F5">
+      <c r="F9">
         <v>1</v>
       </c>
-      <c r="G5">
-        <v>2.400925</v>
-      </c>
-      <c r="H5">
-        <v>7.202775</v>
-      </c>
-      <c r="I5">
-        <v>0.9592478079643895</v>
-      </c>
-      <c r="J5">
-        <v>0.9592478079643894</v>
-      </c>
-      <c r="K5">
+      <c r="G9">
+        <v>3.015918333333333</v>
+      </c>
+      <c r="H9">
+        <v>9.047754999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.9526529808590324</v>
+      </c>
+      <c r="J9">
+        <v>0.9526529808590325</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M9">
+        <v>0.03281033333333333</v>
+      </c>
+      <c r="N9">
+        <v>0.09843099999999999</v>
+      </c>
+      <c r="O9">
+        <v>0.0007802085757011102</v>
+      </c>
+      <c r="P9">
+        <v>0.0007802085757011101</v>
+      </c>
+      <c r="Q9">
+        <v>0.09895328582277776</v>
+      </c>
+      <c r="R9">
+        <v>0.8905795724049997</v>
+      </c>
+      <c r="S9">
+        <v>0.0007432680253334426</v>
+      </c>
+      <c r="T9">
+        <v>0.0007432680253334426</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
         <v>3</v>
       </c>
-      <c r="L5">
+      <c r="F10">
         <v>1</v>
       </c>
-      <c r="M5">
-        <v>55.49088033333334</v>
-      </c>
-      <c r="N5">
-        <v>166.472641</v>
-      </c>
-      <c r="O5">
-        <v>0.9642568285787312</v>
-      </c>
-      <c r="P5">
-        <v>0.9642568285787311</v>
-      </c>
-      <c r="Q5">
-        <v>133.2294418643083</v>
-      </c>
-      <c r="R5">
-        <v>1199.064976778775</v>
-      </c>
-      <c r="S5">
-        <v>0.9249612491288419</v>
-      </c>
-      <c r="T5">
-        <v>0.9249612491288417</v>
+      <c r="G10">
+        <v>3.015918333333333</v>
+      </c>
+      <c r="H10">
+        <v>9.047754999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.9526529808590324</v>
+      </c>
+      <c r="J10">
+        <v>0.9526529808590325</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>41.80400533333333</v>
+      </c>
+      <c r="N10">
+        <v>125.412016</v>
+      </c>
+      <c r="O10">
+        <v>0.9940722981496158</v>
+      </c>
+      <c r="P10">
+        <v>0.9940722981496158</v>
+      </c>
+      <c r="Q10">
+        <v>126.0774660915644</v>
+      </c>
+      <c r="R10">
+        <v>1134.69719482408</v>
+      </c>
+      <c r="S10">
+        <v>0.9470059380216204</v>
+      </c>
+      <c r="T10">
+        <v>0.9470059380216205</v>
       </c>
     </row>
   </sheetData>
